--- a/resources/test_data/data.xlsx
+++ b/resources/test_data/data.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>URL</t>
   </si>
@@ -25,17 +26,67 @@
     <t>Ewait</t>
   </si>
   <si>
-    <t>https://www.amazon.com/</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>UserNameError</t>
+  </si>
+  <si>
+    <t>PasswordError</t>
+  </si>
+  <si>
+    <t>TC#</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>sgdfkhgsdjfhsjdhf</t>
+  </si>
+  <si>
+    <t>We cannot find an account with that email address</t>
+  </si>
+  <si>
+    <t>Your password is incorrect</t>
+  </si>
+  <si>
+    <t>Phone_Email</t>
+  </si>
+  <si>
+    <t>kspramod13@hotmail.com</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>OnePlus 6T</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,17 +124,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,16 +444,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,19 +468,113 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8105892220</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>67468273874</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/test_data/data.xlsx
+++ b/resources/test_data/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>URL</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>thansdfdsflkj</t>
+  </si>
+  <si>
+    <t>8105892220</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -139,6 +145,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,15 +457,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -488,8 +498,8 @@
       <c r="C2" s="2">
         <v>30</v>
       </c>
-      <c r="D2" s="1">
-        <v>8105892220</v>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
@@ -500,6 +510,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3" display="kspramod13@hotmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -510,7 +521,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,8 +558,8 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
-        <v>67468273874</v>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
